--- a/test/Link/Link自動化PHP.xlsx
+++ b/test/Link/Link自動化PHP.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15075" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="2790" windowWidth="10125" windowHeight="4725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Category_Master</t>
     <phoneticPr fontId="1"/>
@@ -111,6 +113,14 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネーム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,6 +204,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1199,6 +1277,87 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7543800"/>
+          <a:ext cx="9752382" cy="7085715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151182</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9752382" cy="7085715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151182</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>56265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7715250"/>
           <a:ext cx="9752382" cy="7085715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1500,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1634,17 +1793,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B6:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1652,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1668,7 +1840,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -1678,4 +1866,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>